--- a/experiment/output/results/OfficeHome/CORAL/DG/1.xlsx
+++ b/experiment/output/results/OfficeHome/CORAL/DG/1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,6 +507,288 @@
         <v>18</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>250211_04-26-10_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>57.99</v>
+      </c>
+      <c r="E3" t="n">
+        <v>55.899</v>
+      </c>
+      <c r="F3" t="n">
+        <v>56.529</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>250210_20-55-58_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>56.128</v>
+      </c>
+      <c r="E4" t="n">
+        <v>54.467</v>
+      </c>
+      <c r="F4" t="n">
+        <v>55.756</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>250211_00-05-12_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>58.276</v>
+      </c>
+      <c r="E5" t="n">
+        <v>56.271</v>
+      </c>
+      <c r="F5" t="n">
+        <v>56.271</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>250211_08-36-57_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>250211_07-17-35_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>54.21</v>
+      </c>
+      <c r="E7" t="n">
+        <v>54.095</v>
+      </c>
+      <c r="F7" t="n">
+        <v>53.064</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>250211_02-59-04_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>57.56</v>
+      </c>
+      <c r="E8" t="n">
+        <v>56.243</v>
+      </c>
+      <c r="F8" t="n">
+        <v>56.243</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>250211_01-20-48_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>56.415</v>
+      </c>
+      <c r="E9" t="n">
+        <v>55.155</v>
+      </c>
+      <c r="F9" t="n">
+        <v>55.956</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>250210_22-55-15_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>56.071</v>
+      </c>
+      <c r="E10" t="n">
+        <v>55.126</v>
+      </c>
+      <c r="F10" t="n">
+        <v>55.155</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>250211_05-48-16_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>55.956</v>
+      </c>
+      <c r="E11" t="n">
+        <v>55.67</v>
+      </c>
+      <c r="F11" t="n">
+        <v>55.527</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment/output/results/OfficeHome/CORAL/DG/1.xlsx
+++ b/experiment/output/results/OfficeHome/CORAL/DG/1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,288 +507,6 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>250211_04-26-10_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>57.99</v>
-      </c>
-      <c r="E3" t="n">
-        <v>55.899</v>
-      </c>
-      <c r="F3" t="n">
-        <v>56.529</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>250210_20-55-58_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>56.128</v>
-      </c>
-      <c r="E4" t="n">
-        <v>54.467</v>
-      </c>
-      <c r="F4" t="n">
-        <v>55.756</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>250211_00-05-12_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>58.276</v>
-      </c>
-      <c r="E5" t="n">
-        <v>56.271</v>
-      </c>
-      <c r="F5" t="n">
-        <v>56.271</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>250211_08-36-57_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>250211_07-17-35_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>54.21</v>
-      </c>
-      <c r="E7" t="n">
-        <v>54.095</v>
-      </c>
-      <c r="F7" t="n">
-        <v>53.064</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>250211_02-59-04_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>57.56</v>
-      </c>
-      <c r="E8" t="n">
-        <v>56.243</v>
-      </c>
-      <c r="F8" t="n">
-        <v>56.243</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>250211_01-20-48_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>56.415</v>
-      </c>
-      <c r="E9" t="n">
-        <v>55.155</v>
-      </c>
-      <c r="F9" t="n">
-        <v>55.956</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>250210_22-55-15_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>56.071</v>
-      </c>
-      <c r="E10" t="n">
-        <v>55.126</v>
-      </c>
-      <c r="F10" t="n">
-        <v>55.155</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>250211_05-48-16_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>55.956</v>
-      </c>
-      <c r="E11" t="n">
-        <v>55.67</v>
-      </c>
-      <c r="F11" t="n">
-        <v>55.527</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
